--- a/Data/EC/NIT-9009174075.xlsx
+++ b/Data/EC/NIT-9009174075.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7D58FC2-A7B7-4A56-B214-C199EAF8A093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C2ECB90-2FDC-4A80-90D4-F1E9DA8AA73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1FE86420-E77A-4C91-B13D-C50ECFB6A7DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{26DDAF4B-2202-4FAA-AEE2-07A50056C76C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="62">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,109 +71,124 @@
     <t>DEWIS MIGUEL ARROYO GUTIERREZ</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
     <t>2409</t>
   </si>
   <si>
+    <t>1044906679</t>
+  </si>
+  <si>
+    <t>MAYERLIS MARGARITA SICILIANO SIERRA</t>
+  </si>
+  <si>
+    <t>1047481758</t>
+  </si>
+  <si>
+    <t>NELSON LLAMAS CANTILLO</t>
+  </si>
+  <si>
+    <t>8851034</t>
+  </si>
+  <si>
+    <t>CARLOS ARTURO WATTS ATENCIO</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>8485835</t>
+  </si>
+  <si>
+    <t>GUSTAVO GONZALEZ MENESES</t>
+  </si>
+  <si>
+    <t>92446813</t>
+  </si>
+  <si>
+    <t>OMAR BLANCO BERRIO</t>
+  </si>
+  <si>
+    <t>1047432236</t>
+  </si>
+  <si>
+    <t>JORGE LUIS MOLINA AREVALO</t>
+  </si>
+  <si>
+    <t>1047485586</t>
+  </si>
+  <si>
+    <t>YOINE SANMARTIN LARA</t>
+  </si>
+  <si>
+    <t>1047458149</t>
+  </si>
+  <si>
+    <t>JHON ALEXANDER LEON CABARCAS</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>6947665</t>
+  </si>
+  <si>
+    <t>YOJAMAR ALEXIS BAZAN SUAREZ</t>
+  </si>
+  <si>
+    <t>1007973081</t>
+  </si>
+  <si>
+    <t>EDGAR JESUS ORTIZ MEJIA</t>
+  </si>
+  <si>
+    <t>1104871556</t>
+  </si>
+  <si>
+    <t>OVER LUIS HERAZO BERRIO</t>
+  </si>
+  <si>
+    <t>9098168</t>
+  </si>
+  <si>
+    <t>RAUMIR ANTONIO SUAREZ ESPTIIA</t>
+  </si>
+  <si>
+    <t>7540328</t>
+  </si>
+  <si>
+    <t>IVAN ALEJANDRO COLMENARES GARCIA</t>
+  </si>
+  <si>
     <t>1001899840</t>
   </si>
   <si>
     <t>YEFERSON ENRIQUE PEREA SILGADO</t>
-  </si>
-  <si>
-    <t>1047481758</t>
-  </si>
-  <si>
-    <t>NELSON LLAMAS CANTILLO</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>7540328</t>
-  </si>
-  <si>
-    <t>IVAN ALEJANDRO COLMENARES GARCIA</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>1044906679</t>
-  </si>
-  <si>
-    <t>MAYERLIS MARGARITA SICILIANO SIERRA</t>
-  </si>
-  <si>
-    <t>1047485586</t>
-  </si>
-  <si>
-    <t>YOINE SANMARTIN LARA</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>1047432236</t>
-  </si>
-  <si>
-    <t>JORGE LUIS MOLINA AREVALO</t>
-  </si>
-  <si>
-    <t>6947665</t>
-  </si>
-  <si>
-    <t>YOJAMAR ALEXIS BAZAN SUAREZ</t>
-  </si>
-  <si>
-    <t>92446813</t>
-  </si>
-  <si>
-    <t>OMAR BLANCO BERRIO</t>
-  </si>
-  <si>
-    <t>8851034</t>
-  </si>
-  <si>
-    <t>CARLOS ARTURO WATTS ATENCIO</t>
-  </si>
-  <si>
-    <t>1104871556</t>
-  </si>
-  <si>
-    <t>OVER LUIS HERAZO BERRIO</t>
-  </si>
-  <si>
-    <t>8485835</t>
-  </si>
-  <si>
-    <t>GUSTAVO GONZALEZ MENESES</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>1007973081</t>
-  </si>
-  <si>
-    <t>EDGAR JESUS ORTIZ MEJIA</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -217,7 +232,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,7 +602,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27C9881-C670-C0E9-9638-EC1D00D38FD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9262A9B3-EB8E-C858-87EC-5D104A0C9F25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,32 +953,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E075851D-A3AD-437E-AD74-1B8E626D559B}">
-  <dimension ref="B2:J97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B404F4F-2210-41A5-A1A9-E66D361E3E77}">
+  <dimension ref="B2:J124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -972,7 +987,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -983,7 +998,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -994,7 +1009,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1005,10 +1020,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1021,8 +1036,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1037,15 +1052,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3920798</v>
+        <v>5349498</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1053,27 +1068,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F13" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1093,16 +1108,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1116,131 +1131,131 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>43333</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>954200</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>43333</v>
+        <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>45066</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>45066</v>
+        <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1251,99 +1266,99 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>954200</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>52000</v>
+        <v>43333</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1355,21 +1370,21 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>52000</v>
+        <v>45066</v>
       </c>
       <c r="G27" s="18">
         <v>1300000</v>
@@ -1378,18 +1393,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1401,18 +1416,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1424,41 +1439,41 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>954200</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1470,41 +1485,41 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>954200</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1516,18 +1531,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1539,7 +1554,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1550,7 +1565,7 @@
         <v>26</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1562,18 +1577,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1585,18 +1600,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1608,18 +1623,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1631,18 +1646,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1654,18 +1669,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1677,18 +1692,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1700,18 +1715,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1723,18 +1738,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1746,18 +1761,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="E44" s="16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1769,18 +1784,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1792,41 +1807,41 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
       </c>
       <c r="G46" s="18">
-        <v>954200</v>
+        <v>1300000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1838,18 +1853,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1861,18 +1876,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1884,18 +1899,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
@@ -1907,18 +1922,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -1930,18 +1945,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
@@ -1953,18 +1968,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F53" s="18">
         <v>52000</v>
@@ -1976,18 +1991,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="E54" s="16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F54" s="18">
         <v>52000</v>
@@ -1999,18 +2014,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F55" s="18">
         <v>52000</v>
@@ -2022,18 +2037,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F56" s="18">
         <v>52000</v>
@@ -2045,18 +2060,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F57" s="18">
         <v>52000</v>
@@ -2068,18 +2083,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F58" s="18">
         <v>52000</v>
@@ -2091,18 +2106,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F59" s="18">
         <v>52000</v>
@@ -2114,18 +2129,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E60" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F60" s="18">
         <v>52000</v>
@@ -2137,18 +2152,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F61" s="18">
         <v>52000</v>
@@ -2160,18 +2175,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F62" s="18">
         <v>52000</v>
@@ -2183,18 +2198,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F63" s="18">
         <v>52000</v>
@@ -2206,18 +2221,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="E64" s="16" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F64" s="18">
         <v>52000</v>
@@ -2229,18 +2244,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
@@ -2252,18 +2267,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F66" s="18">
         <v>52000</v>
@@ -2275,18 +2290,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F67" s="18">
         <v>52000</v>
@@ -2298,18 +2313,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F68" s="18">
         <v>52000</v>
@@ -2321,18 +2336,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F69" s="18">
         <v>52000</v>
@@ -2344,18 +2359,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F70" s="18">
         <v>52000</v>
@@ -2367,18 +2382,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F71" s="18">
         <v>52000</v>
@@ -2390,18 +2405,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F72" s="18">
         <v>52000</v>
@@ -2413,18 +2428,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F73" s="18">
         <v>52000</v>
@@ -2436,18 +2451,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F74" s="18">
         <v>52000</v>
@@ -2459,18 +2474,18 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F75" s="18">
         <v>52000</v>
@@ -2482,18 +2497,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F76" s="18">
         <v>52000</v>
@@ -2505,18 +2520,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F77" s="18">
         <v>52000</v>
@@ -2528,18 +2543,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F78" s="18">
         <v>52000</v>
@@ -2551,18 +2566,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F79" s="18">
         <v>52000</v>
@@ -2574,18 +2589,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F80" s="18">
         <v>52000</v>
@@ -2597,18 +2612,18 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F81" s="18">
         <v>52000</v>
@@ -2620,18 +2635,18 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F82" s="18">
         <v>52000</v>
@@ -2643,18 +2658,18 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F83" s="18">
         <v>52000</v>
@@ -2666,18 +2681,18 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F84" s="18">
         <v>52000</v>
@@ -2689,18 +2704,18 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F85" s="18">
         <v>52000</v>
@@ -2712,18 +2727,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F86" s="18">
         <v>52000</v>
@@ -2735,18 +2750,18 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F87" s="18">
         <v>52000</v>
@@ -2758,18 +2773,18 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F88" s="18">
         <v>52000</v>
@@ -2781,18 +2796,18 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C89" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F89" s="18">
         <v>52000</v>
@@ -2804,18 +2819,18 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F90" s="18">
         <v>52000</v>
@@ -2827,57 +2842,678 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="22" t="s">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G91" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G92" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G93" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G94" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G95" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G96" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G97" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G98" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G99" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G100" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G101" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F91" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G91" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="26"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C96" s="32"/>
-      <c r="H96" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" s="32"/>
-      <c r="H97" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="D102" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G102" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G103" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G104" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G105" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G106" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G107" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G108" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G109" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G110" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G111" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G112" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G113" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G114" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G115" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G116" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="18">
+        <v>45066</v>
+      </c>
+      <c r="G117" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" s="24">
+        <v>43333</v>
+      </c>
+      <c r="G118" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="26"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" s="32"/>
+      <c r="H123" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C124" s="32"/>
+      <c r="H124" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="H123:J123"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009174075.xlsx
+++ b/Data/EC/NIT-9009174075.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C2ECB90-2FDC-4A80-90D4-F1E9DA8AA73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{022749A6-136D-44B8-861B-9FAE6ACA80E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{26DDAF4B-2202-4FAA-AEE2-07A50056C76C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{81EA0723-33EC-4C2E-8C38-816D917DA2D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="59">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,124 +71,115 @@
     <t>DEWIS MIGUEL ARROYO GUTIERREZ</t>
   </si>
   <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>1047481758</t>
+  </si>
+  <si>
+    <t>NELSON LLAMAS CANTILLO</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>7540328</t>
+  </si>
+  <si>
+    <t>IVAN ALEJANDRO COLMENARES GARCIA</t>
+  </si>
+  <si>
+    <t>1001899840</t>
+  </si>
+  <si>
+    <t>YEFERSON ENRIQUE PEREA SILGADO</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>1044906679</t>
+  </si>
+  <si>
+    <t>MAYERLIS MARGARITA SICILIANO SIERRA</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>8851034</t>
+  </si>
+  <si>
+    <t>CARLOS ARTURO WATTS ATENCIO</t>
+  </si>
+  <si>
+    <t>8485835</t>
+  </si>
+  <si>
+    <t>GUSTAVO GONZALEZ MENESES</t>
+  </si>
+  <si>
+    <t>92446813</t>
+  </si>
+  <si>
+    <t>OMAR BLANCO BERRIO</t>
+  </si>
+  <si>
+    <t>1047432236</t>
+  </si>
+  <si>
+    <t>JORGE LUIS MOLINA AREVALO</t>
+  </si>
+  <si>
+    <t>1047485586</t>
+  </si>
+  <si>
+    <t>YOINE SANMARTIN LARA</t>
+  </si>
+  <si>
+    <t>6947665</t>
+  </si>
+  <si>
+    <t>YOJAMAR ALEXIS BAZAN SUAREZ</t>
+  </si>
+  <si>
+    <t>1104871556</t>
+  </si>
+  <si>
+    <t>OVER LUIS HERAZO BERRIO</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1007973081</t>
+  </si>
+  <si>
+    <t>EDGAR JESUS ORTIZ MEJIA</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>1044906679</t>
-  </si>
-  <si>
-    <t>MAYERLIS MARGARITA SICILIANO SIERRA</t>
-  </si>
-  <si>
-    <t>1047481758</t>
-  </si>
-  <si>
-    <t>NELSON LLAMAS CANTILLO</t>
-  </si>
-  <si>
-    <t>8851034</t>
-  </si>
-  <si>
-    <t>CARLOS ARTURO WATTS ATENCIO</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>8485835</t>
-  </si>
-  <si>
-    <t>GUSTAVO GONZALEZ MENESES</t>
-  </si>
-  <si>
-    <t>92446813</t>
-  </si>
-  <si>
-    <t>OMAR BLANCO BERRIO</t>
-  </si>
-  <si>
-    <t>1047432236</t>
-  </si>
-  <si>
-    <t>JORGE LUIS MOLINA AREVALO</t>
-  </si>
-  <si>
-    <t>1047485586</t>
-  </si>
-  <si>
-    <t>YOINE SANMARTIN LARA</t>
-  </si>
-  <si>
-    <t>1047458149</t>
-  </si>
-  <si>
-    <t>JHON ALEXANDER LEON CABARCAS</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>6947665</t>
-  </si>
-  <si>
-    <t>YOJAMAR ALEXIS BAZAN SUAREZ</t>
-  </si>
-  <si>
-    <t>1007973081</t>
-  </si>
-  <si>
-    <t>EDGAR JESUS ORTIZ MEJIA</t>
-  </si>
-  <si>
-    <t>1104871556</t>
-  </si>
-  <si>
-    <t>OVER LUIS HERAZO BERRIO</t>
-  </si>
-  <si>
-    <t>9098168</t>
-  </si>
-  <si>
-    <t>RAUMIR ANTONIO SUAREZ ESPTIIA</t>
-  </si>
-  <si>
-    <t>7540328</t>
-  </si>
-  <si>
-    <t>IVAN ALEJANDRO COLMENARES GARCIA</t>
-  </si>
-  <si>
-    <t>1001899840</t>
-  </si>
-  <si>
-    <t>YEFERSON ENRIQUE PEREA SILGADO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -232,7 +223,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,7 +278,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -300,9 +293,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -502,23 +493,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,10 +537,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,13 +578,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -602,7 +593,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9262A9B3-EB8E-C858-87EC-5D104A0C9F25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0471CEE-1F80-105C-749F-21A7256F645C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -624,7 +615,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -953,32 +944,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B404F4F-2210-41A5-A1A9-E66D361E3E77}">
-  <dimension ref="B2:J124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BF2A1B-024B-4945-8C45-5BE3C94A57D2}">
+  <dimension ref="B2:J113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -987,7 +978,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -998,7 +989,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1009,7 +1000,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1020,10 +1011,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1036,8 +1027,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1052,15 +1043,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5349498</v>
+        <v>4752798</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1068,27 +1059,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1108,16 +1099,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>43333</v>
       </c>
       <c r="G16" s="18">
         <v>1423500</v>
@@ -1140,76 +1131,76 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>45066</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>45066</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>43333</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1220,10 +1211,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
         <v>1423500</v>
@@ -1232,18 +1223,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1255,30 +1246,30 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1301,64 +1292,64 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>43333</v>
+        <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1370,21 +1361,21 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>45066</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
         <v>1300000</v>
@@ -1393,18 +1384,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1416,18 +1407,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1439,18 +1430,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1462,18 +1453,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1485,41 +1476,41 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1531,7 +1522,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +1533,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1554,18 +1545,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1577,18 +1568,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1600,18 +1591,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1623,18 +1614,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1646,18 +1637,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1669,18 +1660,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1692,41 +1683,41 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
       </c>
       <c r="G41" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1738,18 +1729,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1761,18 +1752,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="E44" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1784,18 +1775,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1807,18 +1798,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1830,18 +1821,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1853,18 +1844,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1876,18 +1867,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1899,18 +1890,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
@@ -1922,18 +1913,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -1945,18 +1936,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
@@ -1968,18 +1959,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E53" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F53" s="18">
         <v>52000</v>
@@ -1991,18 +1982,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F54" s="18">
         <v>52000</v>
@@ -2014,18 +2005,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F55" s="18">
         <v>52000</v>
@@ -2037,18 +2028,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F56" s="18">
         <v>52000</v>
@@ -2060,18 +2051,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F57" s="18">
         <v>52000</v>
@@ -2083,18 +2074,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F58" s="18">
         <v>52000</v>
@@ -2106,18 +2097,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F59" s="18">
         <v>52000</v>
@@ -2129,18 +2120,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F60" s="18">
         <v>52000</v>
@@ -2152,18 +2143,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F61" s="18">
         <v>52000</v>
@@ -2175,18 +2166,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E62" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F62" s="18">
         <v>52000</v>
@@ -2198,18 +2189,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F63" s="18">
         <v>52000</v>
@@ -2221,18 +2212,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F64" s="18">
         <v>52000</v>
@@ -2244,18 +2235,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
@@ -2267,18 +2258,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F66" s="18">
         <v>52000</v>
@@ -2290,18 +2281,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F67" s="18">
         <v>52000</v>
@@ -2313,18 +2304,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F68" s="18">
         <v>52000</v>
@@ -2336,18 +2327,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F69" s="18">
         <v>52000</v>
@@ -2359,18 +2350,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F70" s="18">
         <v>52000</v>
@@ -2382,18 +2373,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C71" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E71" s="16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F71" s="18">
         <v>52000</v>
@@ -2405,18 +2396,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>52000</v>
@@ -2428,18 +2419,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>52000</v>
@@ -2451,18 +2442,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F74" s="18">
         <v>52000</v>
@@ -2474,18 +2465,18 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F75" s="18">
         <v>52000</v>
@@ -2497,18 +2488,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F76" s="18">
         <v>52000</v>
@@ -2520,18 +2511,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F77" s="18">
         <v>52000</v>
@@ -2543,18 +2534,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
         <v>52000</v>
@@ -2566,18 +2557,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>52000</v>
@@ -2589,18 +2580,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F80" s="18">
         <v>52000</v>
@@ -2612,18 +2603,18 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F81" s="18">
         <v>52000</v>
@@ -2635,18 +2626,18 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F82" s="18">
         <v>52000</v>
@@ -2658,18 +2649,18 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F83" s="18">
         <v>52000</v>
@@ -2681,18 +2672,18 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F84" s="18">
         <v>52000</v>
@@ -2704,18 +2695,18 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F85" s="18">
         <v>52000</v>
@@ -2727,18 +2718,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F86" s="18">
         <v>52000</v>
@@ -2750,18 +2741,18 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F87" s="18">
         <v>52000</v>
@@ -2773,18 +2764,18 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F88" s="18">
         <v>52000</v>
@@ -2796,18 +2787,18 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F89" s="18">
         <v>52000</v>
@@ -2819,18 +2810,18 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F90" s="18">
         <v>52000</v>
@@ -2842,18 +2833,18 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F91" s="18">
         <v>52000</v>
@@ -2865,18 +2856,18 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F92" s="18">
         <v>52000</v>
@@ -2888,18 +2879,18 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F93" s="18">
         <v>52000</v>
@@ -2911,18 +2902,18 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F94" s="18">
         <v>52000</v>
@@ -2934,18 +2925,18 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F95" s="18">
         <v>52000</v>
@@ -2957,18 +2948,18 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F96" s="18">
         <v>52000</v>
@@ -2980,18 +2971,18 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F97" s="18">
         <v>52000</v>
@@ -3003,18 +2994,18 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F98" s="18">
         <v>52000</v>
@@ -3026,18 +3017,18 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F99" s="18">
         <v>52000</v>
@@ -3049,18 +3040,18 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F100" s="18">
         <v>52000</v>
@@ -3072,18 +3063,18 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F101" s="18">
         <v>52000</v>
@@ -3095,18 +3086,18 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F102" s="18">
         <v>52000</v>
@@ -3118,18 +3109,18 @@
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F103" s="18">
         <v>52000</v>
@@ -3141,18 +3132,18 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F104" s="18">
         <v>52000</v>
@@ -3164,18 +3155,18 @@
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10">
       <c r="B105" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F105" s="18">
         <v>52000</v>
@@ -3187,18 +3178,18 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F106" s="18">
         <v>52000</v>
@@ -3210,310 +3201,57 @@
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C107" s="16" t="s">
+    <row r="107" spans="2:10">
+      <c r="B107" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G107" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G108" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G109" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G111" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G112" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F113" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G113" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F114" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G115" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G116" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G117" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F118" s="24">
-        <v>43333</v>
-      </c>
-      <c r="G118" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="26"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C123" s="32"/>
-      <c r="H123" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C124" s="32"/>
-      <c r="H124" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="F107" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G107" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="26"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="32"/>
+      <c r="H112" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" s="32"/>
+      <c r="H113" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="H112:J112"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009174075.xlsx
+++ b/Data/EC/NIT-9009174075.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{022749A6-136D-44B8-861B-9FAE6ACA80E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DB4969-7EE6-4C06-820B-5FF085642099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{81EA0723-33EC-4C2E-8C38-816D917DA2D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A92AB517-E075-4E10-8592-5050AC700A02}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="60">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -223,7 +226,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,9 +281,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -293,7 +294,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -487,29 +490,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,19 +531,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,13 +587,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>496450</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -593,7 +602,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0471CEE-1F80-105C-749F-21A7256F645C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED273AA-0162-5674-D503-3F6B199B3F6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -615,7 +624,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="750450" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -944,80 +953,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BF2A1B-024B-4945-8C45-5BE3C94A57D2}">
-  <dimension ref="B2:J113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1411A6CD-5439-4007-B811-15869A1E669F}">
+  <dimension ref="B2:J122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1027,13 +1036,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9009174075</v>
       </c>
@@ -1043,15 +1052,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>4752798</v>
+        <v>5220798</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1059,27 +1068,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5">
         <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1099,16 +1108,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1118,20 +1127,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>43333</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1423500</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1141,20 +1150,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>45066</v>
       </c>
-      <c r="G17" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="G17" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>14</v>
       </c>
@@ -1164,20 +1173,20 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>45066</v>
       </c>
-      <c r="G18" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="G18" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1187,20 +1196,20 @@
       <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>43333</v>
       </c>
-      <c r="G19" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="G19" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1210,20 +1219,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="F20" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G20" s="19">
         <v>1423500</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1233,20 +1242,20 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="F21" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G21" s="19">
         <v>1423500</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>14</v>
       </c>
@@ -1256,20 +1265,20 @@
       <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="F22" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1279,20 +1288,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="F23" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G23" s="19">
         <v>1423500</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1302,20 +1311,20 @@
       <c r="D24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1325,20 +1334,20 @@
       <c r="D25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1348,20 +1357,20 @@
       <c r="D26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1371,20 +1380,20 @@
       <c r="D27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1394,20 +1403,20 @@
       <c r="D28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>14</v>
       </c>
@@ -1417,20 +1426,20 @@
       <c r="D29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1440,20 +1449,20 @@
       <c r="D30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>14</v>
       </c>
@@ -1463,20 +1472,20 @@
       <c r="D31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1486,20 +1495,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G32" s="18">
+      <c r="F32" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G32" s="19">
         <v>1423500</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1509,20 +1518,20 @@
       <c r="D33" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1532,20 +1541,20 @@
       <c r="D34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1555,20 +1564,20 @@
       <c r="D35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1578,20 +1587,20 @@
       <c r="D36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1601,20 +1610,20 @@
       <c r="D37" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>14</v>
       </c>
@@ -1624,20 +1633,20 @@
       <c r="D38" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1647,20 +1656,20 @@
       <c r="D39" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>14</v>
       </c>
@@ -1670,20 +1679,20 @@
       <c r="D40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1693,20 +1702,20 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G41" s="18">
+      <c r="F41" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G41" s="19">
         <v>1423500</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1716,20 +1725,20 @@
       <c r="D42" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1739,20 +1748,20 @@
       <c r="D43" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="F43" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1762,20 +1771,20 @@
       <c r="D44" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="F44" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1785,20 +1794,20 @@
       <c r="D45" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1808,20 +1817,20 @@
       <c r="D46" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>14</v>
       </c>
@@ -1831,20 +1840,20 @@
       <c r="D47" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="F47" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1854,20 +1863,20 @@
       <c r="D48" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="F48" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>14</v>
       </c>
@@ -1877,20 +1886,20 @@
       <c r="D49" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="F49" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1900,20 +1909,20 @@
       <c r="D50" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="F50" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1923,20 +1932,20 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="F51" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1946,20 +1955,20 @@
       <c r="D52" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="F52" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -1969,20 +1978,20 @@
       <c r="D53" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="F53" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -1992,20 +2001,20 @@
       <c r="D54" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="F54" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>14</v>
       </c>
@@ -2015,20 +2024,20 @@
       <c r="D55" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="F55" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2038,20 +2047,20 @@
       <c r="D56" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F56" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="F56" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>14</v>
       </c>
@@ -2061,20 +2070,20 @@
       <c r="D57" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F57" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="F57" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2084,20 +2093,20 @@
       <c r="D58" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="F58" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2107,20 +2116,20 @@
       <c r="D59" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="F59" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2130,20 +2139,20 @@
       <c r="D60" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="F60" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2153,20 +2162,20 @@
       <c r="D61" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="F61" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2176,20 +2185,20 @@
       <c r="D62" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="F62" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>14</v>
       </c>
@@ -2199,20 +2208,20 @@
       <c r="D63" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="F63" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2222,20 +2231,20 @@
       <c r="D64" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="F64" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>14</v>
       </c>
@@ -2245,20 +2254,20 @@
       <c r="D65" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="F65" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2268,20 +2277,20 @@
       <c r="D66" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F66" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="F66" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2291,20 +2300,20 @@
       <c r="D67" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F67" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="F67" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G67" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2314,20 +2323,20 @@
       <c r="D68" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="F68" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2337,20 +2346,20 @@
       <c r="D69" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="F69" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G69" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2360,20 +2369,20 @@
       <c r="D70" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="F70" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G70" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>14</v>
       </c>
@@ -2383,20 +2392,20 @@
       <c r="D71" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F71" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="F71" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2406,20 +2415,20 @@
       <c r="D72" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F72" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="F72" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2429,20 +2438,20 @@
       <c r="D73" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10">
+      <c r="F73" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G73" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>14</v>
       </c>
@@ -2452,20 +2461,20 @@
       <c r="D74" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10">
+      <c r="F74" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2475,20 +2484,20 @@
       <c r="D75" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F75" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10">
+      <c r="F75" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2498,20 +2507,20 @@
       <c r="D76" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F76" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10">
+      <c r="F76" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2521,20 +2530,20 @@
       <c r="D77" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10">
+      <c r="F77" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G77" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2544,20 +2553,20 @@
       <c r="D78" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10">
+      <c r="F78" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G78" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2567,20 +2576,20 @@
       <c r="D79" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F79" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10">
+      <c r="F79" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G79" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>14</v>
       </c>
@@ -2590,20 +2599,20 @@
       <c r="D80" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F80" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="F80" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G80" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2613,20 +2622,20 @@
       <c r="D81" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F81" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G81" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10">
+      <c r="F81" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G81" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2636,20 +2645,20 @@
       <c r="D82" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F82" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10">
+      <c r="F82" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G82" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>14</v>
       </c>
@@ -2659,20 +2668,20 @@
       <c r="D83" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F83" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10">
+      <c r="F83" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G83" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2682,20 +2691,20 @@
       <c r="D84" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F84" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10">
+      <c r="F84" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G84" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2705,20 +2714,20 @@
       <c r="D85" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F85" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G85" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10">
+      <c r="F85" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G85" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2728,20 +2737,20 @@
       <c r="D86" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G86" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10">
+      <c r="F86" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G86" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2751,20 +2760,20 @@
       <c r="D87" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F87" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G87" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10">
+      <c r="F87" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G87" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2774,20 +2783,20 @@
       <c r="D88" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F88" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10">
+      <c r="F88" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G88" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>14</v>
       </c>
@@ -2797,20 +2806,20 @@
       <c r="D89" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F89" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10">
+      <c r="F89" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G89" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -2820,20 +2829,20 @@
       <c r="D90" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F90" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10">
+      <c r="F90" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G90" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>14</v>
       </c>
@@ -2843,20 +2852,20 @@
       <c r="D91" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F91" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10">
+      <c r="F91" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G91" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
@@ -2866,20 +2875,20 @@
       <c r="D92" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F92" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10">
+      <c r="F92" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G92" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
@@ -2889,20 +2898,20 @@
       <c r="D93" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F93" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10">
+      <c r="F93" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G93" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
@@ -2912,20 +2921,20 @@
       <c r="D94" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F94" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10">
+      <c r="F94" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G94" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
@@ -2935,20 +2944,20 @@
       <c r="D95" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F95" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10">
+      <c r="F95" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G95" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
@@ -2958,20 +2967,20 @@
       <c r="D96" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F96" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G96" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10">
+      <c r="F96" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G96" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>14</v>
       </c>
@@ -2981,20 +2990,20 @@
       <c r="D97" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F97" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G97" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10">
+      <c r="F97" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G97" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
@@ -3004,20 +3013,20 @@
       <c r="D98" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F98" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G98" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10">
+      <c r="F98" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G98" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>14</v>
       </c>
@@ -3027,20 +3036,20 @@
       <c r="D99" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F99" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10">
+      <c r="F99" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G99" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
@@ -3050,20 +3059,20 @@
       <c r="D100" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F100" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10">
+      <c r="F100" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G100" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
@@ -3073,20 +3082,20 @@
       <c r="D101" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F101" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10">
+      <c r="F101" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G101" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
@@ -3096,20 +3105,20 @@
       <c r="D102" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F102" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10">
+      <c r="F102" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G102" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
@@ -3119,20 +3128,20 @@
       <c r="D103" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F103" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10">
+      <c r="F103" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G103" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
@@ -3142,20 +3151,20 @@
       <c r="D104" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F104" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10">
+      <c r="F104" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G104" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
         <v>14</v>
       </c>
@@ -3165,20 +3174,20 @@
       <c r="D105" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F105" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10">
+      <c r="F105" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G105" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
@@ -3188,70 +3197,277 @@
       <c r="D106" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F106" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="B107" s="21" t="s">
+      <c r="F106" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G106" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="D107" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="22" t="s">
+      <c r="E107" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F107" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G107" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="26"/>
-    </row>
-    <row r="112" spans="2:10">
-      <c r="B112" s="32" t="s">
+      <c r="F107" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G107" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G108" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G109" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G110" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F111" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G111" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G112" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G113" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G114" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G115" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F116" s="26">
+        <v>52000</v>
+      </c>
+      <c r="G116" s="26">
+        <v>1300000</v>
+      </c>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="28"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121" s="34"/>
+      <c r="H121" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="32"/>
-      <c r="H112" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="2:10">
-      <c r="B113" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C113" s="32"/>
-      <c r="H113" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="C122" s="34"/>
+      <c r="H122" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="H121:J121"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
